--- a/volo.xlsx
+++ b/volo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Danilo Volonte\ICDL\novenbre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8BEB6-0DB7-4DAF-969D-FFA21FAF6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC31817-F390-4D1E-B000-CB5A1C5D8646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">Codice </t>
   </si>
@@ -75,14 +76,81 @@
   </si>
   <si>
     <t>Scarponi M2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>Codice Volo</t>
+  </si>
+  <si>
+    <t>Destinazione</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid </t>
+  </si>
+  <si>
+    <t>Londra</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firenze </t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>620.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -428,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,6 +639,146 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A58184-188F-456C-B8E0-686374185D02}">
+  <dimension ref="B2:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>578</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8">
+        <v>261.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>187</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
